--- a/Excel/3. Textual_Functions/Textual.xlsx
+++ b/Excel/3. Textual_Functions/Textual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\3. Textual_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\3. Textual_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51729F50-396D-4706-9782-75C0B6E1CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63290AD-177B-41A3-8546-61E648E6605B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>Example</t>
   </si>
@@ -425,34 +425,10 @@
     </r>
   </si>
   <si>
-    <t>STUDENT 1</t>
-  </si>
-  <si>
-    <t>student 1</t>
-  </si>
-  <si>
-    <t>STUDENT 2</t>
-  </si>
-  <si>
-    <t>student 2</t>
-  </si>
-  <si>
-    <t>STUDENT 3</t>
-  </si>
-  <si>
-    <t>student 3</t>
-  </si>
-  <si>
-    <t>STUDENT 4</t>
-  </si>
-  <si>
-    <t>student 4</t>
-  </si>
-  <si>
-    <t>STUDENT 5</t>
-  </si>
-  <si>
-    <t>student 5</t>
+    <t>Student 1 has scored 95 marks in Maths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SUBSTITUTE(K9,"science","English ",3)</t>
   </si>
 </sst>
 </file>
@@ -867,110 +843,110 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1832,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M7"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1856,10 +1832,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1867,24 +1843,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1893,13 +1869,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1920,11 +1896,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1937,18 +1913,18 @@
       <c r="M5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="57"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="K6" s="25" t="s">
         <v>60</v>
       </c>
@@ -1958,18 +1934,18 @@
       <c r="M6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="K7" s="25" t="s">
         <v>59</v>
       </c>
@@ -1979,44 +1955,44 @@
       <c r="M7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -2027,67 +2003,72 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
@@ -2098,11 +2079,6 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2149,24 +2125,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2175,13 +2151,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2200,11 +2176,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2222,11 +2198,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="K6" s="29" t="s">
         <v>37</v>
       </c>
@@ -2241,11 +2217,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="K7" s="29" t="s">
         <v>38</v>
       </c>
@@ -2260,11 +2236,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="K8" s="29" t="s">
         <v>39</v>
       </c>
@@ -2279,11 +2255,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
       <c r="K9" s="29" t="s">
         <v>40</v>
       </c>
@@ -2298,19 +2274,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -2327,13 +2303,13 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="K14" s="23" t="s">
         <v>1</v>
       </c>
@@ -2349,16 +2325,16 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="K15" s="29" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="29" t="str">
-        <f>CONCATENATE(K15," has scored ",L5, " marks in Maths.")</f>
+        <f>_xlfn.CONCAT(K15," has scored ",L5," marks in Maths.")</f>
         <v>Student 1 has scored 95 marks in Maths.</v>
       </c>
       <c r="M15" s="29"/>
@@ -2369,94 +2345,94 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="K16" s="29" t="s">
         <v>37</v>
       </c>
       <c r="L16" s="29" t="str">
-        <f t="shared" ref="L16:L19" si="0">CONCATENATE(K16," has scored ",L6, " marks in Maths.")</f>
+        <f>CONCATENATE(K16," has scored ",L6," marks in Maths.")</f>
         <v>Student 2 has scored 65 marks in Maths.</v>
       </c>
       <c r="M16" s="29"/>
       <c r="N16" s="29" t="str">
-        <f t="shared" ref="N16:N19" si="1">K16&amp;" has scored "&amp;N6&amp;" marks in English."</f>
+        <f t="shared" ref="N16:N19" si="0">K16&amp;" has scored "&amp;N6&amp;" marks in English."</f>
         <v>Student 2 has scored 75 marks in English.</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="K17" s="29" t="s">
         <v>38</v>
       </c>
       <c r="L17" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(K17," has scored ",L7," marks in Maths.")</f>
         <v>Student 3 has scored 85 marks in Maths.</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Student 3 has scored 90 marks in English.</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="K18" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(K18," has scored ",L8," marks in Maths.")</f>
         <v>Student 4 has scored 99 marks in Maths.</v>
       </c>
       <c r="M18" s="29"/>
       <c r="N18" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Student 4 has scored 85 marks in English.</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="K19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(K19," has scored ",L9," marks in Maths.")</f>
         <v>Student 5 has scored 45 marks in Maths.</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Student 5 has scored 55 marks in English.</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
       <c r="L21" t="s">
         <v>67</v>
       </c>
@@ -2498,6 +2474,11 @@
       </c>
       <c r="N24" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2522,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:O10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2558,23 +2539,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2583,13 +2564,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2597,22 +2578,22 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="K6" s="54" t="s">
         <v>12</v>
       </c>
@@ -2629,100 +2610,100 @@
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="K7" s="65" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="K7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65" t="str">
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67" t="str">
         <f>SUBSTITUTE(K7,"b","d")</f>
         <v>Student</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="55" t="s">
+      <c r="O7" s="67"/>
+      <c r="P7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="K8" s="65" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="K8" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65" t="str">
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67" t="str">
         <f>SUBSTITUTE(K8,"38","83")</f>
         <v>Student 1 scored 83 marks in Science</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="55" t="s">
+      <c r="O8" s="67"/>
+      <c r="P8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="K9" s="65" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="K9" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65" t="str">
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67" t="str">
         <f>SUBSTITUTE(K9,"Science","English")</f>
         <v>Student 1 scored 81 marks in English</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="P9" s="55" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="K10" s="65" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="K10" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65" t="str">
-        <f>SUBSTITUTE(K10,"science","English",1)</f>
-        <v>English scored science 81 marks in science</v>
-      </c>
-      <c r="O10" s="65"/>
-      <c r="P10" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67" t="str">
+        <f>SUBSTITUTE(K10,"science","english",3)</f>
+        <v>science scored science 81 marks in english</v>
+      </c>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -2733,72 +2714,67 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
@@ -2815,6 +2791,11 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:R8"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:R9"/>
@@ -2829,7 +2810,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G21"/>
+      <selection activeCell="M5" sqref="M5:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2863,23 +2844,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2888,13 +2869,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2911,11 +2892,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2923,43 +2904,49 @@
       <c r="L5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>80</v>
+      <c r="M5" s="28" t="str">
+        <f>UPPER(L5)</f>
+        <v>STUDENT 1</v>
+      </c>
+      <c r="N5" s="28" t="str">
+        <f>LOWER(L5)</f>
+        <v>student 1</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="L6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>82</v>
+      <c r="M6" s="28" t="str">
+        <f t="shared" ref="M6:M9" si="0">UPPER(L6)</f>
+        <v>STUDENT 2</v>
+      </c>
+      <c r="N6" s="28" t="str">
+        <f t="shared" ref="N6:N9" si="1">LOWER(L6)</f>
+        <v>student 2</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="L7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>84</v>
+      <c r="M7" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>STUDENT 3</v>
+      </c>
+      <c r="N7" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>student 3</v>
       </c>
       <c r="P7" t="str">
         <f>UPPER(O7)</f>
@@ -2967,51 +2954,55 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="L8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>86</v>
+      <c r="M8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>STUDENT 4</v>
+      </c>
+      <c r="N8" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>student 4</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
       <c r="L9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>88</v>
+      <c r="M9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>STUDENT 5</v>
+      </c>
+      <c r="N9" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>student 5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -3022,64 +3013,64 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3103,7 +3094,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M5" sqref="M5:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3138,24 +3129,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -3164,13 +3155,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -3184,11 +3175,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -3202,75 +3193,75 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="L6" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="21">
-        <f>LEN(L6)</f>
+        <f t="shared" ref="M6:M9" si="0">LEN(L6)</f>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="L7" s="28" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="21">
-        <f>LEN(L7)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="L8" s="28" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="21">
-        <f>LEN(L8)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
       <c r="L9" s="28" t="s">
         <v>48</v>
       </c>
       <c r="M9" s="21">
-        <f>LEN(L9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -3281,64 +3272,64 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K22" s="27"/>
@@ -3384,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3420,24 +3411,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -3446,24 +3437,24 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -3481,11 +3472,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="L6" s="34" t="s">
         <v>49</v>
       </c>
@@ -3503,11 +3494,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="L7" s="33" t="s">
         <v>50</v>
       </c>
@@ -3525,11 +3516,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="L8" s="33" t="s">
         <v>51</v>
       </c>
@@ -3547,11 +3538,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
       <c r="L9" s="33" t="s">
         <v>52</v>
       </c>
@@ -3569,11 +3560,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="L10" s="33" t="s">
         <v>53</v>
       </c>
@@ -3592,11 +3583,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="L11" s="33" t="s">
         <v>54</v>
       </c>
@@ -3622,64 +3613,64 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
       <c r="M21" s="22"/>
     </row>
   </sheetData>
